--- a/html/Abkuerzungen_und_Bedeutungen.xlsx
+++ b/html/Abkuerzungen_und_Bedeutungen.xlsx
@@ -737,7 +737,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_NumbAnzeig.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_NumbAnzeig.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_NumbAnzeig_AX.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig_AX&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_026_sub.html" target="_blank"&gt;Uebung_026_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_NumbAnzeig.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a_sub_Outputs.html" target="_blank"&gt;Uebung_039a_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_060_sub_Outputs.html" target="_blank"&gt;Uebung_060_sub_Outputs&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_026_sub.html" target="_blank"&gt;Uebung_026_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_NumbAnzeig.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_NumbAnzeig_AX.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a_sub_Outputs.html" target="_blank"&gt;Uebung_039a_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_060_sub_Outputs.html" target="_blank"&gt;Uebung_060_sub_Outputs&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006c.html" target="_blank"&gt;Uebung_006c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b4_sub.html" target="_blank"&gt;Uebung_010b4_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b4_sub_AX.html" target="_blank"&gt;Uebung_010b4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b5_sub.html" target="_blank"&gt;Uebung_010b5_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b5_sub_AX.html" target="_blank"&gt;Uebung_010b5_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c2.html" target="_blank"&gt;Uebung_010c2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c2_AX.html" target="_blank"&gt;Uebung_010c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c3_sub.html" target="_blank"&gt;Uebung_010c3_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c3_sub_AX.html" target="_blank"&gt;Uebung_010c3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c4_sub.html" target="_blank"&gt;Uebung_010c4_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c4_sub_AX.html" target="_blank"&gt;Uebung_010c4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_012a_sub.html" target="_blank"&gt;Uebung_012a_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020c2_sub.html" target="_blank"&gt;Uebung_020c2_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_033_sub.html" target="_blank"&gt;Uebung_033_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035.html" target="_blank"&gt;Uebung_035&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035b.html" target="_blank"&gt;Uebung_035b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035c.html" target="_blank"&gt;Uebung_035c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_036.html" target="_blank"&gt;Uebung_036&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_037.html" target="_blank"&gt;Uebung_037&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_038.html" target="_blank"&gt;Uebung_038&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_NumbAnzeig.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_Outputs.html" target="_blank"&gt;Uebung_039_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a_sub_Outputs.html" target="_blank"&gt;Uebung_039a_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040.html" target="_blank"&gt;Uebung_040&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040_2.html" target="_blank"&gt;Uebung_040_2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_040_AX.html" target="_blank"&gt;Uebung_040_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_041.html" target="_blank"&gt;Uebung_041&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_087.html" target="_blank"&gt;Uebung_087&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_087a1.html" target="_blank"&gt;Uebung_087a1&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_090a1.html" target="_blank"&gt;Uebung_090a1&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_090a1_AX.html" target="_blank"&gt;Uebung_090a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_090a2.html" target="_blank"&gt;Uebung_090a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_090a2_AX.html" target="_blank"&gt;Uebung_090a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_103.html" target="_blank"&gt;Uebung_103&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006c.html" target="_blank"&gt;Uebung_006c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b4_sub.html" target="_blank"&gt;Uebung_010b4_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b4_sub_AX.html" target="_blank"&gt;Uebung_010b4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b5_sub.html" target="_blank"&gt;Uebung_010b5_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b5_sub_AX.html" target="_blank"&gt;Uebung_010b5_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c2.html" target="_blank"&gt;Uebung_010c2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c2_AX.html" target="_blank"&gt;Uebung_010c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c3_sub.html" target="_blank"&gt;Uebung_010c3_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c3_sub_AX.html" target="_blank"&gt;Uebung_010c3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c4_sub.html" target="_blank"&gt;Uebung_010c4_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c4_sub_AX.html" target="_blank"&gt;Uebung_010c4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_012a_sub.html" target="_blank"&gt;Uebung_012a_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020c2_sub.html" target="_blank"&gt;Uebung_020c2_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_033_sub.html" target="_blank"&gt;Uebung_033_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035.html" target="_blank"&gt;Uebung_035&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035b.html" target="_blank"&gt;Uebung_035b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035c.html" target="_blank"&gt;Uebung_035c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_036.html" target="_blank"&gt;Uebung_036&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_037.html" target="_blank"&gt;Uebung_037&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_038.html" target="_blank"&gt;Uebung_038&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_NumbAnzeig.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_NumbAnzeig_AX.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_Outputs.html" target="_blank"&gt;Uebung_039_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_Outputs_AX.html" target="_blank"&gt;Uebung_039_sub_Outputs_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a_sub_Outputs.html" target="_blank"&gt;Uebung_039a_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040.html" target="_blank"&gt;Uebung_040&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040_2.html" target="_blank"&gt;Uebung_040_2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_040_AX.html" target="_blank"&gt;Uebung_040_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_041.html" target="_blank"&gt;Uebung_041&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_087.html" target="_blank"&gt;Uebung_087&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_087a1.html" target="_blank"&gt;Uebung_087a1&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_090a1.html" target="_blank"&gt;Uebung_090a1&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_090a1_AX.html" target="_blank"&gt;Uebung_090a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_090a2.html" target="_blank"&gt;Uebung_090a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_090a2_AX.html" target="_blank"&gt;Uebung_090a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_103.html" target="_blank"&gt;Uebung_103&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7807,7 +7807,7 @@
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_009.html" target="_blank"&gt;Uebung_009&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_009a.html" target="_blank"&gt;Uebung_009a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_011a.html" target="_blank"&gt;Uebung_011a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_011a2.html" target="_blank"&gt;Uebung_011a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_012.html" target="_blank"&gt;Uebung_012&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_012a_sub.html" target="_blank"&gt;Uebung_012a_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_012b.html" target="_blank"&gt;Uebung_012b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_015.html" target="_blank"&gt;Uebung_015&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_015a.html" target="_blank"&gt;Uebung_015a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020c2_sub.html" target="_blank"&gt;Uebung_020c2_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035.html" target="_blank"&gt;Uebung_035&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035b.html" target="_blank"&gt;Uebung_035b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035c.html" target="_blank"&gt;Uebung_035c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_036.html" target="_blank"&gt;Uebung_036&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_037.html" target="_blank"&gt;Uebung_037&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_038.html" target="_blank"&gt;Uebung_038&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_NumbAnzeig.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040.html" target="_blank"&gt;Uebung_040&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040_2.html" target="_blank"&gt;Uebung_040_2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_040_AX.html" target="_blank"&gt;Uebung_040_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_041.html" target="_blank"&gt;Uebung_041&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_070.html" target="_blank"&gt;Uebung_070&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_071.html" target="_blank"&gt;Uebung_071&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_071a.html" target="_blank"&gt;Uebung_071a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_071b.html" target="_blank"&gt;Uebung_071b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_072.html" target="_blank"&gt;Uebung_072&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_072b.html" target="_blank"&gt;Uebung_072b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_072c.html" target="_blank"&gt;Uebung_072c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_073.html" target="_blank"&gt;Uebung_073&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_074.html" target="_blank"&gt;Uebung_074&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_083.html" target="_blank"&gt;Uebung_083&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_009.html" target="_blank"&gt;Uebung_009&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_009a.html" target="_blank"&gt;Uebung_009a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_011a.html" target="_blank"&gt;Uebung_011a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_011a2.html" target="_blank"&gt;Uebung_011a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_012.html" target="_blank"&gt;Uebung_012&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_012a_sub.html" target="_blank"&gt;Uebung_012a_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_012b.html" target="_blank"&gt;Uebung_012b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_015.html" target="_blank"&gt;Uebung_015&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_015a.html" target="_blank"&gt;Uebung_015a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020c2_sub.html" target="_blank"&gt;Uebung_020c2_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035.html" target="_blank"&gt;Uebung_035&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035b.html" target="_blank"&gt;Uebung_035b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035c.html" target="_blank"&gt;Uebung_035c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_036.html" target="_blank"&gt;Uebung_036&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_037.html" target="_blank"&gt;Uebung_037&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_038.html" target="_blank"&gt;Uebung_038&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_NumbAnzeig.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_NumbAnzeig_AX.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040.html" target="_blank"&gt;Uebung_040&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040_2.html" target="_blank"&gt;Uebung_040_2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_040_AX.html" target="_blank"&gt;Uebung_040_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_041.html" target="_blank"&gt;Uebung_041&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_070.html" target="_blank"&gt;Uebung_070&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_071.html" target="_blank"&gt;Uebung_071&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_071a.html" target="_blank"&gt;Uebung_071a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_071b.html" target="_blank"&gt;Uebung_071b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_072.html" target="_blank"&gt;Uebung_072&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_072b.html" target="_blank"&gt;Uebung_072b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_072c.html" target="_blank"&gt;Uebung_072c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_073.html" target="_blank"&gt;Uebung_073&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_074.html" target="_blank"&gt;Uebung_074&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_083.html" target="_blank"&gt;Uebung_083&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -7999,7 +7999,7 @@
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b2.html" target="_blank"&gt;Uebung_010b2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b2_AX.html" target="_blank"&gt;Uebung_010b2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b6.html" target="_blank"&gt;Uebung_010b6&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b6_AX.html" target="_blank"&gt;Uebung_010b6_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_013.html" target="_blank"&gt;Uebung_013&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_013_AX.html" target="_blank"&gt;Uebung_013_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_014.html" target="_blank"&gt;Uebung_014&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_015.html" target="_blank"&gt;Uebung_015&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_015a.html" target="_blank"&gt;Uebung_015a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_016.html" target="_blank"&gt;Uebung_016&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_016a.html" target="_blank"&gt;Uebung_016a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_017.html" target="_blank"&gt;Uebung_017&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_018.html" target="_blank"&gt;Uebung_018&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_018a.html" target="_blank"&gt;Uebung_018a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019a.html" target="_blank"&gt;Uebung_019a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019b.html" target="_blank"&gt;Uebung_019b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_021.html" target="_blank"&gt;Uebung_021&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_022.html" target="_blank"&gt;Uebung_022&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_023.html" target="_blank"&gt;Uebung_023&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_024.html" target="_blank"&gt;Uebung_024&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_025.html" target="_blank"&gt;Uebung_025&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_026.html" target="_blank"&gt;Uebung_026&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039.html" target="_blank"&gt;Uebung_039&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a.html" target="_blank"&gt;Uebung_039a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a_sub_Outputs.html" target="_blank"&gt;Uebung_039a_sub_Outputs&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b2.html" target="_blank"&gt;Uebung_010b2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b2_AX.html" target="_blank"&gt;Uebung_010b2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b6.html" target="_blank"&gt;Uebung_010b6&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b6_AX.html" target="_blank"&gt;Uebung_010b6_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_013.html" target="_blank"&gt;Uebung_013&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_013_AX.html" target="_blank"&gt;Uebung_013_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_014.html" target="_blank"&gt;Uebung_014&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_015.html" target="_blank"&gt;Uebung_015&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_015a.html" target="_blank"&gt;Uebung_015a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_016.html" target="_blank"&gt;Uebung_016&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_016a.html" target="_blank"&gt;Uebung_016a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_017.html" target="_blank"&gt;Uebung_017&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_018.html" target="_blank"&gt;Uebung_018&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_018a.html" target="_blank"&gt;Uebung_018a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019a.html" target="_blank"&gt;Uebung_019a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019b.html" target="_blank"&gt;Uebung_019b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_021.html" target="_blank"&gt;Uebung_021&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_022.html" target="_blank"&gt;Uebung_022&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_023.html" target="_blank"&gt;Uebung_023&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_024.html" target="_blank"&gt;Uebung_024&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_025.html" target="_blank"&gt;Uebung_025&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_026.html" target="_blank"&gt;Uebung_026&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039.html" target="_blank"&gt;Uebung_039&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_AX.html" target="_blank"&gt;Uebung_039_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a.html" target="_blank"&gt;Uebung_039a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a_sub_Outputs.html" target="_blank"&gt;Uebung_039a_sub_Outputs&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -8067,7 +8067,7 @@
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010_AX.html" target="_blank"&gt;Uebung_010_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010a4_AX.html" target="_blank"&gt;Uebung_010a4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010a_AX.html" target="_blank"&gt;Uebung_010a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b4_sub_AX.html" target="_blank"&gt;Uebung_010b4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b5_sub_AX.html" target="_blank"&gt;Uebung_010b5_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c2_AX.html" target="_blank"&gt;Uebung_010c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c3_sub_AX.html" target="_blank"&gt;Uebung_010c3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c4_sub_AX.html" target="_blank"&gt;Uebung_010c4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c_AX.html" target="_blank"&gt;Uebung_010c_AX&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010_AX.html" target="_blank"&gt;Uebung_010_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010a4_AX.html" target="_blank"&gt;Uebung_010a4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010a_AX.html" target="_blank"&gt;Uebung_010a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b4_sub_AX.html" target="_blank"&gt;Uebung_010b4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b5_sub_AX.html" target="_blank"&gt;Uebung_010b5_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c2_AX.html" target="_blank"&gt;Uebung_010c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c3_sub_AX.html" target="_blank"&gt;Uebung_010c3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c4_sub_AX.html" target="_blank"&gt;Uebung_010c4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c_AX.html" target="_blank"&gt;Uebung_010c_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_Outputs_AX.html" target="_blank"&gt;Uebung_039_sub_Outputs_AX&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -8789,7 +8789,7 @@
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a.html" target="_blank"&gt;Uebung_004a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a2.html" target="_blank"&gt;Uebung_004a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a2_2.html" target="_blank"&gt;Uebung_004a2_2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a2_3.html" target="_blank"&gt;Uebung_004a2_3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a2_AX.html" target="_blank"&gt;Uebung_004a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a3.html" target="_blank"&gt;Uebung_004a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a3_AX.html" target="_blank"&gt;Uebung_004a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a4.html" target="_blank"&gt;Uebung_004a4&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a4_AX.html" target="_blank"&gt;Uebung_004a4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a5.html" target="_blank"&gt;Uebung_004a5&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a5_AX.html" target="_blank"&gt;Uebung_004a5_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a6.html" target="_blank"&gt;Uebung_004a6&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a6_AX.html" target="_blank"&gt;Uebung_004a6_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a7.html" target="_blank"&gt;Uebung_004a7&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a7_AX.html" target="_blank"&gt;Uebung_004a7_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a8.html" target="_blank"&gt;Uebung_004a8&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a8_AX.html" target="_blank"&gt;Uebung_004a8_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a9.html" target="_blank"&gt;Uebung_004a9&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a9_AX.html" target="_blank"&gt;Uebung_004a9_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a_AX.html" target="_blank"&gt;Uebung_004a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004b.html" target="_blank"&gt;Uebung_004b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004b2.html" target="_blank"&gt;Uebung_004b2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004b3.html" target="_blank"&gt;Uebung_004b3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX.html" target="_blank"&gt;Uebung_004b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX_ASR.html" target="_blank"&gt;Uebung_004b_AX_ASR&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX_ASR_X.html" target="_blank"&gt;Uebung_004b_AX_ASR_X&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c1.html" target="_blank"&gt;Uebung_004c1&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c1_AX.html" target="_blank"&gt;Uebung_004c1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c2.html" target="_blank"&gt;Uebung_004c2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c2_AX.html" target="_blank"&gt;Uebung_004c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c3.html" target="_blank"&gt;Uebung_004c3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c3_AX.html" target="_blank"&gt;Uebung_004c3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c4.html" target="_blank"&gt;Uebung_004c4&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c4_AX.html" target="_blank"&gt;Uebung_004c4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c5.html" target="_blank"&gt;Uebung_004c5&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c5_AX.html" target="_blank"&gt;Uebung_004c5_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006.html" target="_blank"&gt;Uebung_006&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006_AX.html" target="_blank"&gt;Uebung_006_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006a.html" target="_blank"&gt;Uebung_006a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006a2.html" target="_blank"&gt;Uebung_006a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a2_AX.html" target="_blank"&gt;Uebung_006a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006a3.html" target="_blank"&gt;Uebung_006a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a3_AX.html" target="_blank"&gt;Uebung_006a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006a4.html" target="_blank"&gt;Uebung_006a4&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a4_AX.html" target="_blank"&gt;Uebung_006a4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a_AX.html" target="_blank"&gt;Uebung_006a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006b.html" target="_blank"&gt;Uebung_006b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006b_AX.html" target="_blank"&gt;Uebung_006b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006d.html" target="_blank"&gt;Uebung_006d&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006d_AX.html" target="_blank"&gt;Uebung_006d_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_007a1.html" target="_blank"&gt;Uebung_007a1&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a1_AX.html" target="_blank"&gt;Uebung_007a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_007a2.html" target="_blank"&gt;Uebung_007a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a2_AX.html" target="_blank"&gt;Uebung_007a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_007a3.html" target="_blank"&gt;Uebung_007a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a3_AX.html" target="_blank"&gt;Uebung_007a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_009a.html" target="_blank"&gt;Uebung_009a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019.html" target="_blank"&gt;Uebung_019&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019a.html" target="_blank"&gt;Uebung_019a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019b.html" target="_blank"&gt;Uebung_019b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019c.html" target="_blank"&gt;Uebung_019c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020f3.html" target="_blank"&gt;Uebung_020f3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020f3_AX.html" target="_blank"&gt;Uebung_020f3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020h.html" target="_blank"&gt;Uebung_020h&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020h_AX.html" target="_blank"&gt;Uebung_020h_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020i.html" target="_blank"&gt;Uebung_020i&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020i_AX.html" target="_blank"&gt;Uebung_020i_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_031.html" target="_blank"&gt;Uebung_031&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_034b.html" target="_blank"&gt;Uebung_034b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035.html" target="_blank"&gt;Uebung_035&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a.html" target="_blank"&gt;Uebung_035a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1_AX.html" target="_blank"&gt;Uebung_035a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1b_AX.html" target="_blank"&gt;Uebung_035a1b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a2.html" target="_blank"&gt;Uebung_035a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a2_AX.html" target="_blank"&gt;Uebung_035a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a3.html" target="_blank"&gt;Uebung_035a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a3_AX.html" target="_blank"&gt;Uebung_035a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035b.html" target="_blank"&gt;Uebung_035b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035c.html" target="_blank"&gt;Uebung_035c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_036.html" target="_blank"&gt;Uebung_036&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_037.html" target="_blank"&gt;Uebung_037&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_038.html" target="_blank"&gt;Uebung_038&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039.html" target="_blank"&gt;Uebung_039&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a.html" target="_blank"&gt;Uebung_039a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040.html" target="_blank"&gt;Uebung_040&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040_2.html" target="_blank"&gt;Uebung_040_2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_040_AX.html" target="_blank"&gt;Uebung_040_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_041.html" target="_blank"&gt;Uebung_041&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_042.html" target="_blank"&gt;Uebung_042&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_043.html" target="_blank"&gt;Uebung_043&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_080.html" target="_blank"&gt;Uebung_080&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_080b.html" target="_blank"&gt;Uebung_080b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_080c.html" target="_blank"&gt;Uebung_080c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_081.html" target="_blank"&gt;Uebung_081&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_082.html" target="_blank"&gt;Uebung_082&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_083.html" target="_blank"&gt;Uebung_083&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_083_AX.html" target="_blank"&gt;Uebung_083_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_084.html" target="_blank"&gt;Uebung_084&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_085.html" target="_blank"&gt;Uebung_085&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_087.html" target="_blank"&gt;Uebung_087&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_087a1.html" target="_blank"&gt;Uebung_087a1&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_091.html" target="_blank"&gt;Uebung_091&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_093.html" target="_blank"&gt;Uebung_093&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_093b.html" target="_blank"&gt;Uebung_093b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_094.html" target="_blank"&gt;Uebung_094&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_094a.html" target="_blank"&gt;Uebung_094a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_094a_AX.html" target="_blank"&gt;Uebung_094a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_095.html" target="_blank"&gt;Uebung_095&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_095_AX.html" target="_blank"&gt;Uebung_095_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_110.html" target="_blank"&gt;Uebung_110&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_111.html" target="_blank"&gt;Uebung_111&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_124.html" target="_blank"&gt;Uebung_124&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_127.html" target="_blank"&gt;Uebung_127&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_128.html" target="_blank"&gt;Uebung_128&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_128b.html" target="_blank"&gt;Uebung_128b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_132.html" target="_blank"&gt;Uebung_132&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_150_AX.html" target="_blank"&gt;Uebung_150_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_151_AX.html" target="_blank"&gt;Uebung_151_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_152.html" target="_blank"&gt;Uebung_152&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_153.html" target="_blank"&gt;Uebung_153&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_160b.html" target="_blank"&gt;Uebung_160b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160b_AX.html" target="_blank"&gt;Uebung_160b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_171_AX.html" target="_blank"&gt;Uebung_171_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_179.html" target="_blank"&gt;Uebung_179&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_180.html" target="_blank"&gt;Uebung_180&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a.html" target="_blank"&gt;Uebung_004a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a2.html" target="_blank"&gt;Uebung_004a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a2_2.html" target="_blank"&gt;Uebung_004a2_2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a2_3.html" target="_blank"&gt;Uebung_004a2_3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a2_AX.html" target="_blank"&gt;Uebung_004a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a3.html" target="_blank"&gt;Uebung_004a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a3_AX.html" target="_blank"&gt;Uebung_004a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a4.html" target="_blank"&gt;Uebung_004a4&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a4_AX.html" target="_blank"&gt;Uebung_004a4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a5.html" target="_blank"&gt;Uebung_004a5&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a5_AX.html" target="_blank"&gt;Uebung_004a5_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a6.html" target="_blank"&gt;Uebung_004a6&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a6_AX.html" target="_blank"&gt;Uebung_004a6_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a7.html" target="_blank"&gt;Uebung_004a7&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a7_AX.html" target="_blank"&gt;Uebung_004a7_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a8.html" target="_blank"&gt;Uebung_004a8&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a8_AX.html" target="_blank"&gt;Uebung_004a8_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a9.html" target="_blank"&gt;Uebung_004a9&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a9_AX.html" target="_blank"&gt;Uebung_004a9_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a_AX.html" target="_blank"&gt;Uebung_004a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004b.html" target="_blank"&gt;Uebung_004b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004b2.html" target="_blank"&gt;Uebung_004b2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004b3.html" target="_blank"&gt;Uebung_004b3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX.html" target="_blank"&gt;Uebung_004b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX_ASR.html" target="_blank"&gt;Uebung_004b_AX_ASR&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX_ASR_X.html" target="_blank"&gt;Uebung_004b_AX_ASR_X&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c1.html" target="_blank"&gt;Uebung_004c1&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c1_AX.html" target="_blank"&gt;Uebung_004c1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c2.html" target="_blank"&gt;Uebung_004c2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c2_AX.html" target="_blank"&gt;Uebung_004c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c3.html" target="_blank"&gt;Uebung_004c3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c3_AX.html" target="_blank"&gt;Uebung_004c3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c4.html" target="_blank"&gt;Uebung_004c4&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c4_AX.html" target="_blank"&gt;Uebung_004c4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c5.html" target="_blank"&gt;Uebung_004c5&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c5_AX.html" target="_blank"&gt;Uebung_004c5_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006.html" target="_blank"&gt;Uebung_006&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006_AX.html" target="_blank"&gt;Uebung_006_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006a.html" target="_blank"&gt;Uebung_006a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006a2.html" target="_blank"&gt;Uebung_006a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a2_AX.html" target="_blank"&gt;Uebung_006a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006a3.html" target="_blank"&gt;Uebung_006a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a3_AX.html" target="_blank"&gt;Uebung_006a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006a4.html" target="_blank"&gt;Uebung_006a4&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a4_AX.html" target="_blank"&gt;Uebung_006a4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a_AX.html" target="_blank"&gt;Uebung_006a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006b.html" target="_blank"&gt;Uebung_006b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006b_AX.html" target="_blank"&gt;Uebung_006b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006d.html" target="_blank"&gt;Uebung_006d&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006d_AX.html" target="_blank"&gt;Uebung_006d_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_007a1.html" target="_blank"&gt;Uebung_007a1&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a1_AX.html" target="_blank"&gt;Uebung_007a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_007a2.html" target="_blank"&gt;Uebung_007a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a2_AX.html" target="_blank"&gt;Uebung_007a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_007a3.html" target="_blank"&gt;Uebung_007a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a3_AX.html" target="_blank"&gt;Uebung_007a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_009a.html" target="_blank"&gt;Uebung_009a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019.html" target="_blank"&gt;Uebung_019&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019a.html" target="_blank"&gt;Uebung_019a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019b.html" target="_blank"&gt;Uebung_019b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019c.html" target="_blank"&gt;Uebung_019c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020f3.html" target="_blank"&gt;Uebung_020f3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020f3_AX.html" target="_blank"&gt;Uebung_020f3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020h.html" target="_blank"&gt;Uebung_020h&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020h_AX.html" target="_blank"&gt;Uebung_020h_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020i.html" target="_blank"&gt;Uebung_020i&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020i_AX.html" target="_blank"&gt;Uebung_020i_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_031.html" target="_blank"&gt;Uebung_031&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_034b.html" target="_blank"&gt;Uebung_034b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035.html" target="_blank"&gt;Uebung_035&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a.html" target="_blank"&gt;Uebung_035a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1_AX.html" target="_blank"&gt;Uebung_035a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1b_AX.html" target="_blank"&gt;Uebung_035a1b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a2.html" target="_blank"&gt;Uebung_035a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a2_AX.html" target="_blank"&gt;Uebung_035a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a3.html" target="_blank"&gt;Uebung_035a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a3_AX.html" target="_blank"&gt;Uebung_035a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035b.html" target="_blank"&gt;Uebung_035b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035c.html" target="_blank"&gt;Uebung_035c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_036.html" target="_blank"&gt;Uebung_036&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_037.html" target="_blank"&gt;Uebung_037&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_038.html" target="_blank"&gt;Uebung_038&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039.html" target="_blank"&gt;Uebung_039&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_AX.html" target="_blank"&gt;Uebung_039_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a.html" target="_blank"&gt;Uebung_039a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040.html" target="_blank"&gt;Uebung_040&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040_2.html" target="_blank"&gt;Uebung_040_2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_040_AX.html" target="_blank"&gt;Uebung_040_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_041.html" target="_blank"&gt;Uebung_041&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_042.html" target="_blank"&gt;Uebung_042&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_043.html" target="_blank"&gt;Uebung_043&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_080.html" target="_blank"&gt;Uebung_080&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_080b.html" target="_blank"&gt;Uebung_080b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_080c.html" target="_blank"&gt;Uebung_080c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_081.html" target="_blank"&gt;Uebung_081&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_082.html" target="_blank"&gt;Uebung_082&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_083.html" target="_blank"&gt;Uebung_083&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_083_AX.html" target="_blank"&gt;Uebung_083_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_084.html" target="_blank"&gt;Uebung_084&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_085.html" target="_blank"&gt;Uebung_085&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_087.html" target="_blank"&gt;Uebung_087&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_087a1.html" target="_blank"&gt;Uebung_087a1&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_091.html" target="_blank"&gt;Uebung_091&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_093.html" target="_blank"&gt;Uebung_093&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_093b.html" target="_blank"&gt;Uebung_093b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_094.html" target="_blank"&gt;Uebung_094&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_094a.html" target="_blank"&gt;Uebung_094a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_094a_AX.html" target="_blank"&gt;Uebung_094a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_095.html" target="_blank"&gt;Uebung_095&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_095_AX.html" target="_blank"&gt;Uebung_095_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_110.html" target="_blank"&gt;Uebung_110&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_111.html" target="_blank"&gt;Uebung_111&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_124.html" target="_blank"&gt;Uebung_124&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_127.html" target="_blank"&gt;Uebung_127&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_128.html" target="_blank"&gt;Uebung_128&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_128b.html" target="_blank"&gt;Uebung_128b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_132.html" target="_blank"&gt;Uebung_132&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_150_AX.html" target="_blank"&gt;Uebung_150_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_151_AX.html" target="_blank"&gt;Uebung_151_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_152.html" target="_blank"&gt;Uebung_152&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_153.html" target="_blank"&gt;Uebung_153&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_160b.html" target="_blank"&gt;Uebung_160b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160b_AX.html" target="_blank"&gt;Uebung_160b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_171_AX.html" target="_blank"&gt;Uebung_171_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_179.html" target="_blank"&gt;Uebung_179&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_180.html" target="_blank"&gt;Uebung_180&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -9135,7 +9135,7 @@
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003a_AX_sub.html" target="_blank"&gt;Uebung_003a_AX_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_003a_sub.html" target="_blank"&gt;Uebung_003a_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_003b_sub.html" target="_blank"&gt;Uebung_003b_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b4_sub.html" target="_blank"&gt;Uebung_010b4_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b4_sub_AX.html" target="_blank"&gt;Uebung_010b4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b5_sub.html" target="_blank"&gt;Uebung_010b5_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b5_sub_AX.html" target="_blank"&gt;Uebung_010b5_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c2.html" target="_blank"&gt;Uebung_010c2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c2_AX.html" target="_blank"&gt;Uebung_010c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c3_sub.html" target="_blank"&gt;Uebung_010c3_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c3_sub_AX.html" target="_blank"&gt;Uebung_010c3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c4_sub.html" target="_blank"&gt;Uebung_010c4_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c4_sub_AX.html" target="_blank"&gt;Uebung_010c4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_026_sub.html" target="_blank"&gt;Uebung_026_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_Outputs.html" target="_blank"&gt;Uebung_039_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a_sub_Outputs.html" target="_blank"&gt;Uebung_039a_sub_Outputs&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003a_AX_sub.html" target="_blank"&gt;Uebung_003a_AX_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_003a_sub.html" target="_blank"&gt;Uebung_003a_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_003b_sub.html" target="_blank"&gt;Uebung_003b_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b4_sub.html" target="_blank"&gt;Uebung_010b4_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b4_sub_AX.html" target="_blank"&gt;Uebung_010b4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b5_sub.html" target="_blank"&gt;Uebung_010b5_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b5_sub_AX.html" target="_blank"&gt;Uebung_010b5_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c2.html" target="_blank"&gt;Uebung_010c2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c2_AX.html" target="_blank"&gt;Uebung_010c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c3_sub.html" target="_blank"&gt;Uebung_010c3_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c3_sub_AX.html" target="_blank"&gt;Uebung_010c3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c4_sub.html" target="_blank"&gt;Uebung_010c4_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c4_sub_AX.html" target="_blank"&gt;Uebung_010c4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_026_sub.html" target="_blank"&gt;Uebung_026_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_Outputs.html" target="_blank"&gt;Uebung_039_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_Outputs_AX.html" target="_blank"&gt;Uebung_039_sub_Outputs_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a_sub_Outputs.html" target="_blank"&gt;Uebung_039a_sub_Outputs&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -9237,7 +9237,7 @@
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_001_AX.html" target="_blank"&gt;Uebung_001_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_001_AX_b.html" target="_blank"&gt;Uebung_001_AX_b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_001c_AX.html" target="_blank"&gt;Uebung_001c_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002_AX.html" target="_blank"&gt;Uebung_002_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002a2_AX.html" target="_blank"&gt;Uebung_002a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002a3_AX.html" target="_blank"&gt;Uebung_002a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002a5_AX.html" target="_blank"&gt;Uebung_002a5_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002a5b_AX.html" target="_blank"&gt;Uebung_002a5b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002a6_AX.html" target="_blank"&gt;Uebung_002a6_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002a7_AX.html" target="_blank"&gt;Uebung_002a7_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002a_AX.html" target="_blank"&gt;Uebung_002a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002b3_AX.html" target="_blank"&gt;Uebung_002b3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003_AX.html" target="_blank"&gt;Uebung_003_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003a0_AX.html" target="_blank"&gt;Uebung_003a0_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003a_AX_sub.html" target="_blank"&gt;Uebung_003a_AX_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003d_AX.html" target="_blank"&gt;Uebung_003d_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a2_AX.html" target="_blank"&gt;Uebung_004a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a3_AX.html" target="_blank"&gt;Uebung_004a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a4_AX.html" target="_blank"&gt;Uebung_004a4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a5_AX.html" target="_blank"&gt;Uebung_004a5_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a6_AX.html" target="_blank"&gt;Uebung_004a6_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a7_AX.html" target="_blank"&gt;Uebung_004a7_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a8_AX.html" target="_blank"&gt;Uebung_004a8_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a9_AX.html" target="_blank"&gt;Uebung_004a9_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a_AX.html" target="_blank"&gt;Uebung_004a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX.html" target="_blank"&gt;Uebung_004b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX_ASR.html" target="_blank"&gt;Uebung_004b_AX_ASR&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX_ASR_X.html" target="_blank"&gt;Uebung_004b_AX_ASR_X&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c1_AX.html" target="_blank"&gt;Uebung_004c1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c2_AX.html" target="_blank"&gt;Uebung_004c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c3_AX.html" target="_blank"&gt;Uebung_004c3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c4_AX.html" target="_blank"&gt;Uebung_004c4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c5_AX.html" target="_blank"&gt;Uebung_004c5_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c6_AX.html" target="_blank"&gt;Uebung_004c6_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c7_AX.html" target="_blank"&gt;Uebung_004c7_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_005_AX.html" target="_blank"&gt;Uebung_005_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006_AX.html" target="_blank"&gt;Uebung_006_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a2_AX.html" target="_blank"&gt;Uebung_006a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a3_AX.html" target="_blank"&gt;Uebung_006a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a4_AX.html" target="_blank"&gt;Uebung_006a4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a_AX.html" target="_blank"&gt;Uebung_006a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006b_AX.html" target="_blank"&gt;Uebung_006b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006d_AX.html" target="_blank"&gt;Uebung_006d_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006e1_AX.html" target="_blank"&gt;Uebung_006e1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006e2_AX.html" target="_blank"&gt;Uebung_006e2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007_AX.html" target="_blank"&gt;Uebung_007_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a1_AX.html" target="_blank"&gt;Uebung_007a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a2_AX.html" target="_blank"&gt;Uebung_007a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a3_AX.html" target="_blank"&gt;Uebung_007a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_008_AX.html" target="_blank"&gt;Uebung_008_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_009_AX.html" target="_blank"&gt;Uebung_009_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010_AX.html" target="_blank"&gt;Uebung_010_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010a2_AX.html" target="_blank"&gt;Uebung_010a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010a3_AX.html" target="_blank"&gt;Uebung_010a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010a_AX.html" target="_blank"&gt;Uebung_010a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b1_AX.html" target="_blank"&gt;Uebung_010b1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b2_AX.html" target="_blank"&gt;Uebung_010b2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b3_AX.html" target="_blank"&gt;Uebung_010b3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b4_sub_AX.html" target="_blank"&gt;Uebung_010b4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b5_sub_AX.html" target="_blank"&gt;Uebung_010b5_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b6_AX.html" target="_blank"&gt;Uebung_010b6_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b7_AX.html" target="_blank"&gt;Uebung_010b7_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b8_AX.html" target="_blank"&gt;Uebung_010b8_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b9_AX.html" target="_blank"&gt;Uebung_010b9_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010bA2_AX.html" target="_blank"&gt;Uebung_010bA2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010bA3_AX.html" target="_blank"&gt;Uebung_010bA3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010bA4_AX.html" target="_blank"&gt;Uebung_010bA4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010bA_AX.html" target="_blank"&gt;Uebung_010bA_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c2_AX.html" target="_blank"&gt;Uebung_010c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c3_sub_AX.html" target="_blank"&gt;Uebung_010c3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c4_sub_AX.html" target="_blank"&gt;Uebung_010c4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c_AX.html" target="_blank"&gt;Uebung_010c_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_013_AX.html" target="_blank"&gt;Uebung_013_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020a_AX.html" target="_blank"&gt;Uebung_020a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020b_AX.html" target="_blank"&gt;Uebung_020b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020c3_AX.html" target="_blank"&gt;Uebung_020c3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020c_AX.html" target="_blank"&gt;Uebung_020c_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020d_AX.html" target="_blank"&gt;Uebung_020d_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020e2_AX.html" target="_blank"&gt;Uebung_020e2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020e_AX.html" target="_blank"&gt;Uebung_020e_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020f2_AX.html" target="_blank"&gt;Uebung_020f2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020f3_AX.html" target="_blank"&gt;Uebung_020f3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020f_AX.html" target="_blank"&gt;Uebung_020f_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020g_AX.html" target="_blank"&gt;Uebung_020g_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020h_AX.html" target="_blank"&gt;Uebung_020h_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020i_AX.html" target="_blank"&gt;Uebung_020i_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020j2_AX.html" target="_blank"&gt;Uebung_020j2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020j_AX.html" target="_blank"&gt;Uebung_020j_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1_AX.html" target="_blank"&gt;Uebung_035a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1b_AX.html" target="_blank"&gt;Uebung_035a1b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a2_AX.html" target="_blank"&gt;Uebung_035a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a3_AX.html" target="_blank"&gt;Uebung_035a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_040_AX.html" target="_blank"&gt;Uebung_040_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_083_AX.html" target="_blank"&gt;Uebung_083_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_090a1_AX.html" target="_blank"&gt;Uebung_090a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_090a2_AX.html" target="_blank"&gt;Uebung_090a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_094a_AX.html" target="_blank"&gt;Uebung_094a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_095_AX.html" target="_blank"&gt;Uebung_095_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_103.html" target="_blank"&gt;Uebung_103&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_103c.html" target="_blank"&gt;Uebung_103c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_103c2.html" target="_blank"&gt;Uebung_103c2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_150_AX.html" target="_blank"&gt;Uebung_150_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_151_AX.html" target="_blank"&gt;Uebung_151_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160_AX.html" target="_blank"&gt;Uebung_160_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160b2_AX.html" target="_blank"&gt;Uebung_160b2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160b_AX.html" target="_blank"&gt;Uebung_160b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_171_AX.html" target="_blank"&gt;Uebung_171_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_177_AX.html" target="_blank"&gt;Uebung_177_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_178_AX.html" target="_blank"&gt;Uebung_178_AX&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_001_AX.html" target="_blank"&gt;Uebung_001_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_001_AX_b.html" target="_blank"&gt;Uebung_001_AX_b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_001c_AX.html" target="_blank"&gt;Uebung_001c_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002_AX.html" target="_blank"&gt;Uebung_002_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002a2_AX.html" target="_blank"&gt;Uebung_002a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002a3_AX.html" target="_blank"&gt;Uebung_002a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002a5_AX.html" target="_blank"&gt;Uebung_002a5_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002a5b_AX.html" target="_blank"&gt;Uebung_002a5b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002a6_AX.html" target="_blank"&gt;Uebung_002a6_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002a7_AX.html" target="_blank"&gt;Uebung_002a7_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002a_AX.html" target="_blank"&gt;Uebung_002a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002b3_AX.html" target="_blank"&gt;Uebung_002b3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003_AX.html" target="_blank"&gt;Uebung_003_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003a0_AX.html" target="_blank"&gt;Uebung_003a0_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003a_AX_sub.html" target="_blank"&gt;Uebung_003a_AX_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003d_AX.html" target="_blank"&gt;Uebung_003d_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a2_AX.html" target="_blank"&gt;Uebung_004a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a3_AX.html" target="_blank"&gt;Uebung_004a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a4_AX.html" target="_blank"&gt;Uebung_004a4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a5_AX.html" target="_blank"&gt;Uebung_004a5_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a6_AX.html" target="_blank"&gt;Uebung_004a6_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a7_AX.html" target="_blank"&gt;Uebung_004a7_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a8_AX.html" target="_blank"&gt;Uebung_004a8_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a9_AX.html" target="_blank"&gt;Uebung_004a9_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a_AX.html" target="_blank"&gt;Uebung_004a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX.html" target="_blank"&gt;Uebung_004b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX_ASR.html" target="_blank"&gt;Uebung_004b_AX_ASR&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX_ASR_X.html" target="_blank"&gt;Uebung_004b_AX_ASR_X&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c1_AX.html" target="_blank"&gt;Uebung_004c1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c2_AX.html" target="_blank"&gt;Uebung_004c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c3_AX.html" target="_blank"&gt;Uebung_004c3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c4_AX.html" target="_blank"&gt;Uebung_004c4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c5_AX.html" target="_blank"&gt;Uebung_004c5_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c6_AX.html" target="_blank"&gt;Uebung_004c6_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c7_AX.html" target="_blank"&gt;Uebung_004c7_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_005_AX.html" target="_blank"&gt;Uebung_005_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006_AX.html" target="_blank"&gt;Uebung_006_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a2_AX.html" target="_blank"&gt;Uebung_006a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a3_AX.html" target="_blank"&gt;Uebung_006a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a4_AX.html" target="_blank"&gt;Uebung_006a4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a_AX.html" target="_blank"&gt;Uebung_006a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006b_AX.html" target="_blank"&gt;Uebung_006b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006d_AX.html" target="_blank"&gt;Uebung_006d_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006e1_AX.html" target="_blank"&gt;Uebung_006e1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006e2_AX.html" target="_blank"&gt;Uebung_006e2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007_AX.html" target="_blank"&gt;Uebung_007_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a1_AX.html" target="_blank"&gt;Uebung_007a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a2_AX.html" target="_blank"&gt;Uebung_007a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a3_AX.html" target="_blank"&gt;Uebung_007a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_008_AX.html" target="_blank"&gt;Uebung_008_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_009_AX.html" target="_blank"&gt;Uebung_009_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010_AX.html" target="_blank"&gt;Uebung_010_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010a2_AX.html" target="_blank"&gt;Uebung_010a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010a3_AX.html" target="_blank"&gt;Uebung_010a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010a_AX.html" target="_blank"&gt;Uebung_010a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b1_AX.html" target="_blank"&gt;Uebung_010b1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b2_AX.html" target="_blank"&gt;Uebung_010b2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b3_AX.html" target="_blank"&gt;Uebung_010b3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b4_sub_AX.html" target="_blank"&gt;Uebung_010b4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b5_sub_AX.html" target="_blank"&gt;Uebung_010b5_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b6_AX.html" target="_blank"&gt;Uebung_010b6_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b7_AX.html" target="_blank"&gt;Uebung_010b7_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b8_AX.html" target="_blank"&gt;Uebung_010b8_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b9_AX.html" target="_blank"&gt;Uebung_010b9_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010bA2_AX.html" target="_blank"&gt;Uebung_010bA2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010bA3_AX.html" target="_blank"&gt;Uebung_010bA3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010bA4_AX.html" target="_blank"&gt;Uebung_010bA4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010bA_AX.html" target="_blank"&gt;Uebung_010bA_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c2_AX.html" target="_blank"&gt;Uebung_010c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c3_sub_AX.html" target="_blank"&gt;Uebung_010c3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c4_sub_AX.html" target="_blank"&gt;Uebung_010c4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c_AX.html" target="_blank"&gt;Uebung_010c_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_013_AX.html" target="_blank"&gt;Uebung_013_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020a_AX.html" target="_blank"&gt;Uebung_020a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020b_AX.html" target="_blank"&gt;Uebung_020b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020c3_AX.html" target="_blank"&gt;Uebung_020c3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020c_AX.html" target="_blank"&gt;Uebung_020c_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020d_AX.html" target="_blank"&gt;Uebung_020d_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020e2_AX.html" target="_blank"&gt;Uebung_020e2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020e_AX.html" target="_blank"&gt;Uebung_020e_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020f2_AX.html" target="_blank"&gt;Uebung_020f2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020f3_AX.html" target="_blank"&gt;Uebung_020f3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020f_AX.html" target="_blank"&gt;Uebung_020f_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020g_AX.html" target="_blank"&gt;Uebung_020g_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020h_AX.html" target="_blank"&gt;Uebung_020h_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020i_AX.html" target="_blank"&gt;Uebung_020i_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020j2_AX.html" target="_blank"&gt;Uebung_020j2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020j_AX.html" target="_blank"&gt;Uebung_020j_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1_AX.html" target="_blank"&gt;Uebung_035a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1b_AX.html" target="_blank"&gt;Uebung_035a1b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a2_AX.html" target="_blank"&gt;Uebung_035a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a3_AX.html" target="_blank"&gt;Uebung_035a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_Outputs_AX.html" target="_blank"&gt;Uebung_039_sub_Outputs_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_040_AX.html" target="_blank"&gt;Uebung_040_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_083_AX.html" target="_blank"&gt;Uebung_083_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_090a1_AX.html" target="_blank"&gt;Uebung_090a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_090a2_AX.html" target="_blank"&gt;Uebung_090a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_094a_AX.html" target="_blank"&gt;Uebung_094a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_095_AX.html" target="_blank"&gt;Uebung_095_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_103.html" target="_blank"&gt;Uebung_103&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_103c.html" target="_blank"&gt;Uebung_103c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_103c2.html" target="_blank"&gt;Uebung_103c2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_150_AX.html" target="_blank"&gt;Uebung_150_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_151_AX.html" target="_blank"&gt;Uebung_151_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160_AX.html" target="_blank"&gt;Uebung_160_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160b2_AX.html" target="_blank"&gt;Uebung_160b2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160b_AX.html" target="_blank"&gt;Uebung_160b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_171_AX.html" target="_blank"&gt;Uebung_171_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_177_AX.html" target="_blank"&gt;Uebung_177_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_178_AX.html" target="_blank"&gt;Uebung_178_AX&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -19331,7 +19331,7 @@
       <c r="F609" t="inlineStr"/>
       <c r="G609" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035.html" target="_blank"&gt;Uebung_035&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035b.html" target="_blank"&gt;Uebung_035b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035c.html" target="_blank"&gt;Uebung_035c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_036.html" target="_blank"&gt;Uebung_036&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_037.html" target="_blank"&gt;Uebung_037&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_038.html" target="_blank"&gt;Uebung_038&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_NumbAnzeig.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040.html" target="_blank"&gt;Uebung_040&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040_2.html" target="_blank"&gt;Uebung_040_2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_040_AX.html" target="_blank"&gt;Uebung_040_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_041.html" target="_blank"&gt;Uebung_041&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035.html" target="_blank"&gt;Uebung_035&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035b.html" target="_blank"&gt;Uebung_035b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035c.html" target="_blank"&gt;Uebung_035c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_036.html" target="_blank"&gt;Uebung_036&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_037.html" target="_blank"&gt;Uebung_037&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_038.html" target="_blank"&gt;Uebung_038&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_NumbAnzeig.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_NumbAnzeig_AX.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040.html" target="_blank"&gt;Uebung_040&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040_2.html" target="_blank"&gt;Uebung_040_2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_040_AX.html" target="_blank"&gt;Uebung_040_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_041.html" target="_blank"&gt;Uebung_041&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H609" t="inlineStr">
@@ -43204,15 +43204,19 @@
       </c>
       <c r="D1399" t="inlineStr">
         <is>
-          <t>sequence_Pattern_04_04_loop_AX (Auto-added)</t>
+          <t>Sequenzer (Schrittschaltwerk), der eine Abfolge von 4 Zuständen in einer Endlosschleife steuert (AX).</t>
         </is>
       </c>
       <c r="E1399" t="inlineStr">
         <is>
-          <t>sequence_Pattern_04_04_loop_AX</t>
-        </is>
-      </c>
-      <c r="F1399" t="inlineStr"/>
+          <t>Pattern Sequenzer 4/4 Loop AX</t>
+        </is>
+      </c>
+      <c r="F1399" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
       <c r="G1399" t="inlineStr">
         <is>
           <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1_AX.html" target="_blank"&gt;Uebung_035a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1b_AX.html" target="_blank"&gt;Uebung_035a1b_AX&lt;/a&gt;</t>
@@ -43238,15 +43242,19 @@
       </c>
       <c r="D1400" t="inlineStr">
         <is>
-          <t>sequence_Pattern_08_08_loop_AX (Auto-added)</t>
+          <t>Sequenzer (Schrittkette), der ein konfigurierbares "Nockenschaltwerk" mit 8 Zuständen und 8 Ausgängen implementiert (AX).</t>
         </is>
       </c>
       <c r="E1400" t="inlineStr">
         <is>
-          <t>sequence_Pattern_08_08_loop_AX</t>
-        </is>
-      </c>
-      <c r="F1400" t="inlineStr"/>
+          <t>Pattern Sequenzer 8/8 Loop AX</t>
+        </is>
+      </c>
+      <c r="F1400" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
       <c r="G1400" t="inlineStr"/>
       <c r="H1400" t="inlineStr">
         <is>
@@ -45363,7 +45371,7 @@
       </c>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003b2_AX.html" target="_blank"&gt;Uebung_003b2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003b3_AX.html" target="_blank"&gt;Uebung_003b3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003c_AX.html" target="_blank"&gt;Uebung_003c_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a3_AX.html" target="_blank"&gt;Uebung_006a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a3_sub_AX.html" target="_blank"&gt;Uebung_006a3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a4_AX.html" target="_blank"&gt;Uebung_006a4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b4_AX.html" target="_blank"&gt;Uebung_010b4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b5_AX.html" target="_blank"&gt;Uebung_010b5_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c2_AX.html" target="_blank"&gt;Uebung_010c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c3_AX.html" target="_blank"&gt;Uebung_010c3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c3_sub_AX.html" target="_blank"&gt;Uebung_010c3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c4_AX.html" target="_blank"&gt;Uebung_010c4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c4_sub_AX.html" target="_blank"&gt;Uebung_010c4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c_AX.html" target="_blank"&gt;Uebung_010c_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020j2_AX_sub.html" target="_blank"&gt;Uebung_020j2_AX_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1_AX.html" target="_blank"&gt;Uebung_035a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1b_AX.html" target="_blank"&gt;Uebung_035a1b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a2_AX.html" target="_blank"&gt;Uebung_035a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a3_AX.html" target="_blank"&gt;Uebung_035a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_040_AX.html" target="_blank"&gt;Uebung_040_AX&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003b2_AX.html" target="_blank"&gt;Uebung_003b2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003b3_AX.html" target="_blank"&gt;Uebung_003b3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003c_AX.html" target="_blank"&gt;Uebung_003c_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a3_AX.html" target="_blank"&gt;Uebung_006a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a3_sub_AX.html" target="_blank"&gt;Uebung_006a3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a4_AX.html" target="_blank"&gt;Uebung_006a4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b4_AX.html" target="_blank"&gt;Uebung_010b4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b5_AX.html" target="_blank"&gt;Uebung_010b5_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c2_AX.html" target="_blank"&gt;Uebung_010c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c3_AX.html" target="_blank"&gt;Uebung_010c3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c3_sub_AX.html" target="_blank"&gt;Uebung_010c3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c4_AX.html" target="_blank"&gt;Uebung_010c4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c4_sub_AX.html" target="_blank"&gt;Uebung_010c4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c_AX.html" target="_blank"&gt;Uebung_010c_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020j2_AX_sub.html" target="_blank"&gt;Uebung_020j2_AX_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1_AX.html" target="_blank"&gt;Uebung_035a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1b_AX.html" target="_blank"&gt;Uebung_035a1b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a2_AX.html" target="_blank"&gt;Uebung_035a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a3_AX.html" target="_blank"&gt;Uebung_035a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_AX.html" target="_blank"&gt;Uebung_039_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_Outputs_AX.html" target="_blank"&gt;Uebung_039_sub_Outputs_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_040_AX.html" target="_blank"&gt;Uebung_040_AX&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
@@ -46299,7 +46307,7 @@
       <c r="F1497" t="inlineStr"/>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_026_sub.html" target="_blank"&gt;Uebung_026_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_NumbAnzeig.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a_sub_Outputs.html" target="_blank"&gt;Uebung_039a_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_060_sub_Outputs.html" target="_blank"&gt;Uebung_060_sub_Outputs&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_026_sub.html" target="_blank"&gt;Uebung_026_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_NumbAnzeig.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_NumbAnzeig_AX.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a_sub_Outputs.html" target="_blank"&gt;Uebung_039a_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_060_sub_Outputs.html" target="_blank"&gt;Uebung_060_sub_Outputs&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H1497" t="inlineStr">
@@ -46465,7 +46473,7 @@
       <c r="F1502" t="inlineStr"/>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_NumbAnzeig.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_NumbAnzeig.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_NumbAnzeig_AX.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig_AX&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H1502" t="inlineStr">
@@ -46533,7 +46541,7 @@
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006c.html" target="_blank"&gt;Uebung_006c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b4_sub.html" target="_blank"&gt;Uebung_010b4_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b4_sub_AX.html" target="_blank"&gt;Uebung_010b4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b5_sub.html" target="_blank"&gt;Uebung_010b5_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b5_sub_AX.html" target="_blank"&gt;Uebung_010b5_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c2.html" target="_blank"&gt;Uebung_010c2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c2_AX.html" target="_blank"&gt;Uebung_010c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c3_sub.html" target="_blank"&gt;Uebung_010c3_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c3_sub_AX.html" target="_blank"&gt;Uebung_010c3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c4_sub.html" target="_blank"&gt;Uebung_010c4_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c4_sub_AX.html" target="_blank"&gt;Uebung_010c4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_012a_sub.html" target="_blank"&gt;Uebung_012a_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020c2_sub.html" target="_blank"&gt;Uebung_020c2_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_033_sub.html" target="_blank"&gt;Uebung_033_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035.html" target="_blank"&gt;Uebung_035&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035b.html" target="_blank"&gt;Uebung_035b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035c.html" target="_blank"&gt;Uebung_035c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_036.html" target="_blank"&gt;Uebung_036&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_037.html" target="_blank"&gt;Uebung_037&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_038.html" target="_blank"&gt;Uebung_038&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_NumbAnzeig.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_Outputs.html" target="_blank"&gt;Uebung_039_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a_sub_Outputs.html" target="_blank"&gt;Uebung_039a_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040.html" target="_blank"&gt;Uebung_040&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040_2.html" target="_blank"&gt;Uebung_040_2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_040_AX.html" target="_blank"&gt;Uebung_040_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_041.html" target="_blank"&gt;Uebung_041&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_087.html" target="_blank"&gt;Uebung_087&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_087a1.html" target="_blank"&gt;Uebung_087a1&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_090a1.html" target="_blank"&gt;Uebung_090a1&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_090a1_AX.html" target="_blank"&gt;Uebung_090a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_090a2.html" target="_blank"&gt;Uebung_090a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_090a2_AX.html" target="_blank"&gt;Uebung_090a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_103.html" target="_blank"&gt;Uebung_103&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006c.html" target="_blank"&gt;Uebung_006c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b4_sub.html" target="_blank"&gt;Uebung_010b4_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b4_sub_AX.html" target="_blank"&gt;Uebung_010b4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b5_sub.html" target="_blank"&gt;Uebung_010b5_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b5_sub_AX.html" target="_blank"&gt;Uebung_010b5_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c2.html" target="_blank"&gt;Uebung_010c2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c2_AX.html" target="_blank"&gt;Uebung_010c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c3_sub.html" target="_blank"&gt;Uebung_010c3_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c3_sub_AX.html" target="_blank"&gt;Uebung_010c3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c4_sub.html" target="_blank"&gt;Uebung_010c4_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c4_sub_AX.html" target="_blank"&gt;Uebung_010c4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_012a_sub.html" target="_blank"&gt;Uebung_012a_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020c2_sub.html" target="_blank"&gt;Uebung_020c2_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_033_sub.html" target="_blank"&gt;Uebung_033_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035.html" target="_blank"&gt;Uebung_035&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035b.html" target="_blank"&gt;Uebung_035b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035c.html" target="_blank"&gt;Uebung_035c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_036.html" target="_blank"&gt;Uebung_036&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_037.html" target="_blank"&gt;Uebung_037&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_038.html" target="_blank"&gt;Uebung_038&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_NumbAnzeig.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_NumbAnzeig_AX.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_Outputs.html" target="_blank"&gt;Uebung_039_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_Outputs_AX.html" target="_blank"&gt;Uebung_039_sub_Outputs_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a_sub_Outputs.html" target="_blank"&gt;Uebung_039a_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040.html" target="_blank"&gt;Uebung_040&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040_2.html" target="_blank"&gt;Uebung_040_2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_040_AX.html" target="_blank"&gt;Uebung_040_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_041.html" target="_blank"&gt;Uebung_041&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_087.html" target="_blank"&gt;Uebung_087&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_087a1.html" target="_blank"&gt;Uebung_087a1&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_090a1.html" target="_blank"&gt;Uebung_090a1&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_090a1_AX.html" target="_blank"&gt;Uebung_090a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_090a2.html" target="_blank"&gt;Uebung_090a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_090a2_AX.html" target="_blank"&gt;Uebung_090a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_103.html" target="_blank"&gt;Uebung_103&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H1504" t="inlineStr">
@@ -50061,7 +50069,7 @@
       <c r="F1610" t="inlineStr"/>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_002a3.html" target="_blank"&gt;Uebung_002a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002a3_AX.html" target="_blank"&gt;Uebung_002a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_002b2.html" target="_blank"&gt;Uebung_002b2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002b3_AX.html" target="_blank"&gt;Uebung_002b3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a.html" target="_blank"&gt;Uebung_035a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a2.html" target="_blank"&gt;Uebung_035a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a2_AX.html" target="_blank"&gt;Uebung_035a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a3.html" target="_blank"&gt;Uebung_035a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a3_AX.html" target="_blank"&gt;Uebung_035a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_Outputs.html" target="_blank"&gt;Uebung_039_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_089.html" target="_blank"&gt;Uebung_089&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160_AX.html" target="_blank"&gt;Uebung_160_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160b2_AX.html" target="_blank"&gt;Uebung_160b2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160b_AX.html" target="_blank"&gt;Uebung_160b_AX&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_002a3.html" target="_blank"&gt;Uebung_002a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002a3_AX.html" target="_blank"&gt;Uebung_002a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_002b2.html" target="_blank"&gt;Uebung_002b2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002b3_AX.html" target="_blank"&gt;Uebung_002b3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a.html" target="_blank"&gt;Uebung_035a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a2.html" target="_blank"&gt;Uebung_035a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a2_AX.html" target="_blank"&gt;Uebung_035a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a3.html" target="_blank"&gt;Uebung_035a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a3_AX.html" target="_blank"&gt;Uebung_035a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_Outputs.html" target="_blank"&gt;Uebung_039_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_Outputs_AX.html" target="_blank"&gt;Uebung_039_sub_Outputs_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_089.html" target="_blank"&gt;Uebung_089&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160_AX.html" target="_blank"&gt;Uebung_160_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160b2_AX.html" target="_blank"&gt;Uebung_160b2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160b_AX.html" target="_blank"&gt;Uebung_160b_AX&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -50133,7 +50141,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002a3_AX.html" target="_blank"&gt;Uebung_002a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002b3_AX.html" target="_blank"&gt;Uebung_002b3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a2_AX.html" target="_blank"&gt;Uebung_035a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a3_AX.html" target="_blank"&gt;Uebung_035a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160_AX.html" target="_blank"&gt;Uebung_160_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160b2_AX.html" target="_blank"&gt;Uebung_160b2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160b_AX.html" target="_blank"&gt;Uebung_160b_AX&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002a3_AX.html" target="_blank"&gt;Uebung_002a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002b3_AX.html" target="_blank"&gt;Uebung_002b3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a2_AX.html" target="_blank"&gt;Uebung_035a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a3_AX.html" target="_blank"&gt;Uebung_035a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_Outputs_AX.html" target="_blank"&gt;Uebung_039_sub_Outputs_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160_AX.html" target="_blank"&gt;Uebung_160_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160b2_AX.html" target="_blank"&gt;Uebung_160b2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160b_AX.html" target="_blank"&gt;Uebung_160b_AX&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -55803,7 +55811,7 @@
       </c>
       <c r="G1793" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002_AX.html" target="_blank"&gt;Uebung_002_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX.html" target="_blank"&gt;Uebung_004b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX_ASR.html" target="_blank"&gt;Uebung_004b_AX_ASR&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX_ASR_X.html" target="_blank"&gt;Uebung_004b_AX_ASR_X&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a3_sub_AX.html" target="_blank"&gt;Uebung_006a3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a3_AX.html" target="_blank"&gt;Uebung_007a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_008_AX.html" target="_blank"&gt;Uebung_008_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c2_AX.html" target="_blank"&gt;Uebung_010c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c3_sub_AX.html" target="_blank"&gt;Uebung_010c3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c4_sub_AX.html" target="_blank"&gt;Uebung_010c4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c_AX.html" target="_blank"&gt;Uebung_010c_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020c3_AX.html" target="_blank"&gt;Uebung_020c3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020e2_AX.html" target="_blank"&gt;Uebung_020e2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020f2_AX.html" target="_blank"&gt;Uebung_020f2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020j2_AX_sub.html" target="_blank"&gt;Uebung_020j2_AX_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020j_AX.html" target="_blank"&gt;Uebung_020j_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a2_AX.html" target="_blank"&gt;Uebung_035a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a3_AX.html" target="_blank"&gt;Uebung_035a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_094a_AX.html" target="_blank"&gt;Uebung_094a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160_AX.html" target="_blank"&gt;Uebung_160_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160b2_AX.html" target="_blank"&gt;Uebung_160b2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160b_AX.html" target="_blank"&gt;Uebung_160b_AX&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_002_AX.html" target="_blank"&gt;Uebung_002_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX.html" target="_blank"&gt;Uebung_004b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX_ASR.html" target="_blank"&gt;Uebung_004b_AX_ASR&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX_ASR_X.html" target="_blank"&gt;Uebung_004b_AX_ASR_X&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a3_sub_AX.html" target="_blank"&gt;Uebung_006a3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a3_AX.html" target="_blank"&gt;Uebung_007a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_008_AX.html" target="_blank"&gt;Uebung_008_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c2_AX.html" target="_blank"&gt;Uebung_010c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c3_sub_AX.html" target="_blank"&gt;Uebung_010c3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c4_sub_AX.html" target="_blank"&gt;Uebung_010c4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c_AX.html" target="_blank"&gt;Uebung_010c_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020c3_AX.html" target="_blank"&gt;Uebung_020c3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020e2_AX.html" target="_blank"&gt;Uebung_020e2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020f2_AX.html" target="_blank"&gt;Uebung_020f2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020j2_AX_sub.html" target="_blank"&gt;Uebung_020j2_AX_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020j_AX.html" target="_blank"&gt;Uebung_020j_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a2_AX.html" target="_blank"&gt;Uebung_035a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a3_AX.html" target="_blank"&gt;Uebung_035a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_Outputs_AX.html" target="_blank"&gt;Uebung_039_sub_Outputs_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_094a_AX.html" target="_blank"&gt;Uebung_094a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160_AX.html" target="_blank"&gt;Uebung_160_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160b2_AX.html" target="_blank"&gt;Uebung_160b2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_160b_AX.html" target="_blank"&gt;Uebung_160b_AX&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H1793" t="inlineStr">
@@ -56603,7 +56611,7 @@
       <c r="F1817" t="inlineStr"/>
       <c r="G1817" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035.html" target="_blank"&gt;Uebung_035&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a.html" target="_blank"&gt;Uebung_035a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1_AX.html" target="_blank"&gt;Uebung_035a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a2.html" target="_blank"&gt;Uebung_035a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a2_AX.html" target="_blank"&gt;Uebung_035a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a3.html" target="_blank"&gt;Uebung_035a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a3_AX.html" target="_blank"&gt;Uebung_035a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035c.html" target="_blank"&gt;Uebung_035c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_036.html" target="_blank"&gt;Uebung_036&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_037.html" target="_blank"&gt;Uebung_037&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_038.html" target="_blank"&gt;Uebung_038&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039.html" target="_blank"&gt;Uebung_039&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a.html" target="_blank"&gt;Uebung_039a&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035.html" target="_blank"&gt;Uebung_035&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a.html" target="_blank"&gt;Uebung_035a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1_AX.html" target="_blank"&gt;Uebung_035a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a2.html" target="_blank"&gt;Uebung_035a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a2_AX.html" target="_blank"&gt;Uebung_035a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a3.html" target="_blank"&gt;Uebung_035a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a3_AX.html" target="_blank"&gt;Uebung_035a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035c.html" target="_blank"&gt;Uebung_035c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_036.html" target="_blank"&gt;Uebung_036&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_037.html" target="_blank"&gt;Uebung_037&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_038.html" target="_blank"&gt;Uebung_038&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039.html" target="_blank"&gt;Uebung_039&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_AX.html" target="_blank"&gt;Uebung_039_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a.html" target="_blank"&gt;Uebung_039a&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H1817" t="inlineStr">
@@ -56769,7 +56777,7 @@
       </c>
       <c r="G1822" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a.html" target="_blank"&gt;Uebung_004a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a2.html" target="_blank"&gt;Uebung_004a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a2_2.html" target="_blank"&gt;Uebung_004a2_2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a2_3.html" target="_blank"&gt;Uebung_004a2_3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a2_AX.html" target="_blank"&gt;Uebung_004a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a3.html" target="_blank"&gt;Uebung_004a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a3_AX.html" target="_blank"&gt;Uebung_004a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a4.html" target="_blank"&gt;Uebung_004a4&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a4_AX.html" target="_blank"&gt;Uebung_004a4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a5.html" target="_blank"&gt;Uebung_004a5&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a5_AX.html" target="_blank"&gt;Uebung_004a5_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a6.html" target="_blank"&gt;Uebung_004a6&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a6_AX.html" target="_blank"&gt;Uebung_004a6_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a7.html" target="_blank"&gt;Uebung_004a7&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a7_AX.html" target="_blank"&gt;Uebung_004a7_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a8.html" target="_blank"&gt;Uebung_004a8&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a8_AX.html" target="_blank"&gt;Uebung_004a8_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a9.html" target="_blank"&gt;Uebung_004a9&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a9_AX.html" target="_blank"&gt;Uebung_004a9_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a_AX.html" target="_blank"&gt;Uebung_004a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004b.html" target="_blank"&gt;Uebung_004b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004b2.html" target="_blank"&gt;Uebung_004b2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004b3.html" target="_blank"&gt;Uebung_004b3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX.html" target="_blank"&gt;Uebung_004b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX_ASR.html" target="_blank"&gt;Uebung_004b_AX_ASR&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX_ASR_X.html" target="_blank"&gt;Uebung_004b_AX_ASR_X&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c1.html" target="_blank"&gt;Uebung_004c1&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c1_AX.html" target="_blank"&gt;Uebung_004c1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c2.html" target="_blank"&gt;Uebung_004c2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c2_AX.html" target="_blank"&gt;Uebung_004c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c3.html" target="_blank"&gt;Uebung_004c3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c3_AX.html" target="_blank"&gt;Uebung_004c3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c4.html" target="_blank"&gt;Uebung_004c4&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c4_AX.html" target="_blank"&gt;Uebung_004c4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c5.html" target="_blank"&gt;Uebung_004c5&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c5_AX.html" target="_blank"&gt;Uebung_004c5_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006.html" target="_blank"&gt;Uebung_006&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006_AX.html" target="_blank"&gt;Uebung_006_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006a.html" target="_blank"&gt;Uebung_006a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006a2.html" target="_blank"&gt;Uebung_006a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a2_AX.html" target="_blank"&gt;Uebung_006a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006a3.html" target="_blank"&gt;Uebung_006a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a3_AX.html" target="_blank"&gt;Uebung_006a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006a4.html" target="_blank"&gt;Uebung_006a4&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a4_AX.html" target="_blank"&gt;Uebung_006a4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a_AX.html" target="_blank"&gt;Uebung_006a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006b.html" target="_blank"&gt;Uebung_006b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006b_AX.html" target="_blank"&gt;Uebung_006b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006d.html" target="_blank"&gt;Uebung_006d&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006d_AX.html" target="_blank"&gt;Uebung_006d_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_007a1.html" target="_blank"&gt;Uebung_007a1&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a1_AX.html" target="_blank"&gt;Uebung_007a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_007a2.html" target="_blank"&gt;Uebung_007a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a2_AX.html" target="_blank"&gt;Uebung_007a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_007a3.html" target="_blank"&gt;Uebung_007a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a3_AX.html" target="_blank"&gt;Uebung_007a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_009a.html" target="_blank"&gt;Uebung_009a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b2.html" target="_blank"&gt;Uebung_010b2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b2_AX.html" target="_blank"&gt;Uebung_010b2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b3.html" target="_blank"&gt;Uebung_010b3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b3_AX.html" target="_blank"&gt;Uebung_010b3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b6.html" target="_blank"&gt;Uebung_010b6&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b6_AX.html" target="_blank"&gt;Uebung_010b6_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b7.html" target="_blank"&gt;Uebung_010b7&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b7_AX.html" target="_blank"&gt;Uebung_010b7_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b8.html" target="_blank"&gt;Uebung_010b8&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b8_AX.html" target="_blank"&gt;Uebung_010b8_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b9.html" target="_blank"&gt;Uebung_010b9&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b9_AX.html" target="_blank"&gt;Uebung_010b9_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010bA.html" target="_blank"&gt;Uebung_010bA&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010bA2.html" target="_blank"&gt;Uebung_010bA2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010bA2_AX.html" target="_blank"&gt;Uebung_010bA2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010bA3.html" target="_blank"&gt;Uebung_010bA3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010bA3_AX.html" target="_blank"&gt;Uebung_010bA3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010bA4.html" target="_blank"&gt;Uebung_010bA4&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010bA4_AX.html" target="_blank"&gt;Uebung_010bA4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010bA_AX.html" target="_blank"&gt;Uebung_010bA_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_013.html" target="_blank"&gt;Uebung_013&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_013_AX.html" target="_blank"&gt;Uebung_013_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_014.html" target="_blank"&gt;Uebung_014&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_015.html" target="_blank"&gt;Uebung_015&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_015a.html" target="_blank"&gt;Uebung_015a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_016.html" target="_blank"&gt;Uebung_016&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_016a.html" target="_blank"&gt;Uebung_016a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_017.html" target="_blank"&gt;Uebung_017&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_018.html" target="_blank"&gt;Uebung_018&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_018a.html" target="_blank"&gt;Uebung_018a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019.html" target="_blank"&gt;Uebung_019&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019a.html" target="_blank"&gt;Uebung_019a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019b.html" target="_blank"&gt;Uebung_019b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019c.html" target="_blank"&gt;Uebung_019c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020f3.html" target="_blank"&gt;Uebung_020f3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020f3_AX.html" target="_blank"&gt;Uebung_020f3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020h.html" target="_blank"&gt;Uebung_020h&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020h_AX.html" target="_blank"&gt;Uebung_020h_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020i.html" target="_blank"&gt;Uebung_020i&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020i_AX.html" target="_blank"&gt;Uebung_020i_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_021.html" target="_blank"&gt;Uebung_021&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_022.html" target="_blank"&gt;Uebung_022&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_023.html" target="_blank"&gt;Uebung_023&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_024.html" target="_blank"&gt;Uebung_024&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_025.html" target="_blank"&gt;Uebung_025&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_026.html" target="_blank"&gt;Uebung_026&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_031.html" target="_blank"&gt;Uebung_031&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_034b.html" target="_blank"&gt;Uebung_034b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035.html" target="_blank"&gt;Uebung_035&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a.html" target="_blank"&gt;Uebung_035a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1_AX.html" target="_blank"&gt;Uebung_035a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1b_AX.html" target="_blank"&gt;Uebung_035a1b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a2.html" target="_blank"&gt;Uebung_035a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a2_AX.html" target="_blank"&gt;Uebung_035a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a3.html" target="_blank"&gt;Uebung_035a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a3_AX.html" target="_blank"&gt;Uebung_035a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035b.html" target="_blank"&gt;Uebung_035b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035c.html" target="_blank"&gt;Uebung_035c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_036.html" target="_blank"&gt;Uebung_036&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_037.html" target="_blank"&gt;Uebung_037&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_038.html" target="_blank"&gt;Uebung_038&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039.html" target="_blank"&gt;Uebung_039&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a.html" target="_blank"&gt;Uebung_039a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a_sub_Outputs.html" target="_blank"&gt;Uebung_039a_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040.html" target="_blank"&gt;Uebung_040&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040_2.html" target="_blank"&gt;Uebung_040_2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_040_AX.html" target="_blank"&gt;Uebung_040_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_041.html" target="_blank"&gt;Uebung_041&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_042.html" target="_blank"&gt;Uebung_042&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_043.html" target="_blank"&gt;Uebung_043&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_080.html" target="_blank"&gt;Uebung_080&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_080b.html" target="_blank"&gt;Uebung_080b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_080c.html" target="_blank"&gt;Uebung_080c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_081.html" target="_blank"&gt;Uebung_081&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_082.html" targe</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a.html" target="_blank"&gt;Uebung_004a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a2.html" target="_blank"&gt;Uebung_004a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a2_2.html" target="_blank"&gt;Uebung_004a2_2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a2_3.html" target="_blank"&gt;Uebung_004a2_3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a2_AX.html" target="_blank"&gt;Uebung_004a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a3.html" target="_blank"&gt;Uebung_004a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a3_AX.html" target="_blank"&gt;Uebung_004a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a4.html" target="_blank"&gt;Uebung_004a4&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a4_AX.html" target="_blank"&gt;Uebung_004a4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a5.html" target="_blank"&gt;Uebung_004a5&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a5_AX.html" target="_blank"&gt;Uebung_004a5_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a6.html" target="_blank"&gt;Uebung_004a6&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a6_AX.html" target="_blank"&gt;Uebung_004a6_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a7.html" target="_blank"&gt;Uebung_004a7&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a7_AX.html" target="_blank"&gt;Uebung_004a7_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a8.html" target="_blank"&gt;Uebung_004a8&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a8_AX.html" target="_blank"&gt;Uebung_004a8_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004a9.html" target="_blank"&gt;Uebung_004a9&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a9_AX.html" target="_blank"&gt;Uebung_004a9_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004a_AX.html" target="_blank"&gt;Uebung_004a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004b.html" target="_blank"&gt;Uebung_004b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004b2.html" target="_blank"&gt;Uebung_004b2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004b3.html" target="_blank"&gt;Uebung_004b3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX.html" target="_blank"&gt;Uebung_004b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX_ASR.html" target="_blank"&gt;Uebung_004b_AX_ASR&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004b_AX_ASR_X.html" target="_blank"&gt;Uebung_004b_AX_ASR_X&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c1.html" target="_blank"&gt;Uebung_004c1&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c1_AX.html" target="_blank"&gt;Uebung_004c1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c2.html" target="_blank"&gt;Uebung_004c2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c2_AX.html" target="_blank"&gt;Uebung_004c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c3.html" target="_blank"&gt;Uebung_004c3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c3_AX.html" target="_blank"&gt;Uebung_004c3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c4.html" target="_blank"&gt;Uebung_004c4&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c4_AX.html" target="_blank"&gt;Uebung_004c4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_004c5.html" target="_blank"&gt;Uebung_004c5&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_004c5_AX.html" target="_blank"&gt;Uebung_004c5_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006.html" target="_blank"&gt;Uebung_006&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006_AX.html" target="_blank"&gt;Uebung_006_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006a.html" target="_blank"&gt;Uebung_006a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006a2.html" target="_blank"&gt;Uebung_006a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a2_AX.html" target="_blank"&gt;Uebung_006a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006a3.html" target="_blank"&gt;Uebung_006a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a3_AX.html" target="_blank"&gt;Uebung_006a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006a4.html" target="_blank"&gt;Uebung_006a4&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a4_AX.html" target="_blank"&gt;Uebung_006a4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006a_AX.html" target="_blank"&gt;Uebung_006a_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006b.html" target="_blank"&gt;Uebung_006b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006b_AX.html" target="_blank"&gt;Uebung_006b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_006d.html" target="_blank"&gt;Uebung_006d&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_006d_AX.html" target="_blank"&gt;Uebung_006d_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_007a1.html" target="_blank"&gt;Uebung_007a1&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a1_AX.html" target="_blank"&gt;Uebung_007a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_007a2.html" target="_blank"&gt;Uebung_007a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a2_AX.html" target="_blank"&gt;Uebung_007a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_007a3.html" target="_blank"&gt;Uebung_007a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_007a3_AX.html" target="_blank"&gt;Uebung_007a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_009a.html" target="_blank"&gt;Uebung_009a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b2.html" target="_blank"&gt;Uebung_010b2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b2_AX.html" target="_blank"&gt;Uebung_010b2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b3.html" target="_blank"&gt;Uebung_010b3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b3_AX.html" target="_blank"&gt;Uebung_010b3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b6.html" target="_blank"&gt;Uebung_010b6&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b6_AX.html" target="_blank"&gt;Uebung_010b6_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b7.html" target="_blank"&gt;Uebung_010b7&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b7_AX.html" target="_blank"&gt;Uebung_010b7_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b8.html" target="_blank"&gt;Uebung_010b8&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b8_AX.html" target="_blank"&gt;Uebung_010b8_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b9.html" target="_blank"&gt;Uebung_010b9&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b9_AX.html" target="_blank"&gt;Uebung_010b9_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010bA.html" target="_blank"&gt;Uebung_010bA&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010bA2.html" target="_blank"&gt;Uebung_010bA2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010bA2_AX.html" target="_blank"&gt;Uebung_010bA2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010bA3.html" target="_blank"&gt;Uebung_010bA3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010bA3_AX.html" target="_blank"&gt;Uebung_010bA3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010bA4.html" target="_blank"&gt;Uebung_010bA4&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010bA4_AX.html" target="_blank"&gt;Uebung_010bA4_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010bA_AX.html" target="_blank"&gt;Uebung_010bA_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_013.html" target="_blank"&gt;Uebung_013&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_013_AX.html" target="_blank"&gt;Uebung_013_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_014.html" target="_blank"&gt;Uebung_014&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_015.html" target="_blank"&gt;Uebung_015&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_015a.html" target="_blank"&gt;Uebung_015a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_016.html" target="_blank"&gt;Uebung_016&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_016a.html" target="_blank"&gt;Uebung_016a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_017.html" target="_blank"&gt;Uebung_017&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_018.html" target="_blank"&gt;Uebung_018&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_018a.html" target="_blank"&gt;Uebung_018a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019.html" target="_blank"&gt;Uebung_019&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019a.html" target="_blank"&gt;Uebung_019a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019b.html" target="_blank"&gt;Uebung_019b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_019c.html" target="_blank"&gt;Uebung_019c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020f3.html" target="_blank"&gt;Uebung_020f3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020f3_AX.html" target="_blank"&gt;Uebung_020f3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020h.html" target="_blank"&gt;Uebung_020h&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020h_AX.html" target="_blank"&gt;Uebung_020h_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020i.html" target="_blank"&gt;Uebung_020i&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_020i_AX.html" target="_blank"&gt;Uebung_020i_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_021.html" target="_blank"&gt;Uebung_021&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_022.html" target="_blank"&gt;Uebung_022&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_023.html" target="_blank"&gt;Uebung_023&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_024.html" target="_blank"&gt;Uebung_024&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_025.html" target="_blank"&gt;Uebung_025&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_026.html" target="_blank"&gt;Uebung_026&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_031.html" target="_blank"&gt;Uebung_031&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_034b.html" target="_blank"&gt;Uebung_034b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035.html" target="_blank"&gt;Uebung_035&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a.html" target="_blank"&gt;Uebung_035a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1_AX.html" target="_blank"&gt;Uebung_035a1_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a1b_AX.html" target="_blank"&gt;Uebung_035a1b_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a2.html" target="_blank"&gt;Uebung_035a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a2_AX.html" target="_blank"&gt;Uebung_035a2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035a3.html" target="_blank"&gt;Uebung_035a3&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_035a3_AX.html" target="_blank"&gt;Uebung_035a3_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035b.html" target="_blank"&gt;Uebung_035b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035c.html" target="_blank"&gt;Uebung_035c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_036.html" target="_blank"&gt;Uebung_036&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_037.html" target="_blank"&gt;Uebung_037&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_038.html" target="_blank"&gt;Uebung_038&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039.html" target="_blank"&gt;Uebung_039&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_AX.html" target="_blank"&gt;Uebung_039_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a.html" target="_blank"&gt;Uebung_039a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a_sub_Outputs.html" target="_blank"&gt;Uebung_039a_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040.html" target="_blank"&gt;Uebung_040&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040_2.html" target="_blank"&gt;Uebung_040_2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_040_AX.html" target="_blank"&gt;Uebung_040_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_041.html" target="_blank"&gt;Uebung_041&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_042.html" target="_blank"&gt;Uebung_042&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_043.html" target="_blank"&gt;Uebung_043&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_080.html" target="_blank"&gt;Uebung_080&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_080b.html" target="_blank"&gt;Uebung_080b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_080c.html" target="_blank"&gt;Uebung_080c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_081.html</t>
         </is>
       </c>
       <c r="H1822" t="inlineStr">
@@ -58451,7 +58459,7 @@
       <c r="F1875" t="inlineStr"/>
       <c r="G1875" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003a_AX_sub.html" target="_blank"&gt;Uebung_003a_AX_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_003a_sub.html" target="_blank"&gt;Uebung_003a_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_003b2_sub.html" target="_blank"&gt;Uebung_003b2_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003b2_sub_AX.html" target="_blank"&gt;Uebung_003b2_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003b3_sub_AX.html" target="_blank"&gt;Uebung_003b3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_003b_sub.html" target="_blank"&gt;Uebung_003b_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_003c_sub.html" target="_blank"&gt;Uebung_003c_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003c_sub_AX.html" target="_blank"&gt;Uebung_003c_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b4_sub.html" target="_blank"&gt;Uebung_010b4_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b4_sub_AX.html" target="_blank"&gt;Uebung_010b4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b5_sub.html" target="_blank"&gt;Uebung_010b5_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b5_sub_AX.html" target="_blank"&gt;Uebung_010b5_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c2.html" target="_blank"&gt;Uebung_010c2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c2_AX.html" target="_blank"&gt;Uebung_010c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c3_sub.html" target="_blank"&gt;Uebung_010c3_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c3_sub_AX.html" target="_blank"&gt;Uebung_010c3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c4_sub.html" target="_blank"&gt;Uebung_010c4_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c4_sub_AX.html" target="_blank"&gt;Uebung_010c4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_026_sub.html" target="_blank"&gt;Uebung_026_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_033_sub.html" target="_blank"&gt;Uebung_033_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_Outputs.html" target="_blank"&gt;Uebung_039_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a_sub_Outputs.html" target="_blank"&gt;Uebung_039a_sub_Outputs&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003a_AX_sub.html" target="_blank"&gt;Uebung_003a_AX_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_003a_sub.html" target="_blank"&gt;Uebung_003a_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_003b2_sub.html" target="_blank"&gt;Uebung_003b2_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003b2_sub_AX.html" target="_blank"&gt;Uebung_003b2_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003b3_sub_AX.html" target="_blank"&gt;Uebung_003b3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_003b_sub.html" target="_blank"&gt;Uebung_003b_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_003c_sub.html" target="_blank"&gt;Uebung_003c_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_003c_sub_AX.html" target="_blank"&gt;Uebung_003c_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b4_sub.html" target="_blank"&gt;Uebung_010b4_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b4_sub_AX.html" target="_blank"&gt;Uebung_010b4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010b5_sub.html" target="_blank"&gt;Uebung_010b5_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010b5_sub_AX.html" target="_blank"&gt;Uebung_010b5_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c2.html" target="_blank"&gt;Uebung_010c2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c2_AX.html" target="_blank"&gt;Uebung_010c2_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c3_sub.html" target="_blank"&gt;Uebung_010c3_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c3_sub_AX.html" target="_blank"&gt;Uebung_010c3_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_010c4_sub.html" target="_blank"&gt;Uebung_010c4_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_010c4_sub_AX.html" target="_blank"&gt;Uebung_010c4_sub_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_026_sub.html" target="_blank"&gt;Uebung_026_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_033_sub.html" target="_blank"&gt;Uebung_033_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_Outputs.html" target="_blank"&gt;Uebung_039_sub_Outputs&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_Outputs_AX.html" target="_blank"&gt;Uebung_039_sub_Outputs_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039a_sub_Outputs.html" target="_blank"&gt;Uebung_039a_sub_Outputs&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H1875" t="inlineStr"/>
@@ -59775,7 +59783,11 @@
           <t>adapter</t>
         </is>
       </c>
-      <c r="G1916" t="inlineStr"/>
+      <c r="G1916" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_AX.html" target="_blank"&gt;Uebung_039_AX&lt;/a&gt;</t>
+        </is>
+      </c>
       <c r="H1916" t="inlineStr">
         <is>
           <t>sequence_ET_05_AX</t>
@@ -61399,7 +61411,7 @@
       </c>
       <c r="G1965" t="inlineStr">
         <is>
-          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_009.html" target="_blank"&gt;Uebung_009&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_009a.html" target="_blank"&gt;Uebung_009a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_011a.html" target="_blank"&gt;Uebung_011a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_011a2.html" target="_blank"&gt;Uebung_011a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_012.html" target="_blank"&gt;Uebung_012&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_012a_sub.html" target="_blank"&gt;Uebung_012a_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_012b.html" target="_blank"&gt;Uebung_012b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_015.html" target="_blank"&gt;Uebung_015&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_015a.html" target="_blank"&gt;Uebung_015a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020c2_sub.html" target="_blank"&gt;Uebung_020c2_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035.html" target="_blank"&gt;Uebung_035&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035b.html" target="_blank"&gt;Uebung_035b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035c.html" target="_blank"&gt;Uebung_035c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_036.html" target="_blank"&gt;Uebung_036&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_037.html" target="_blank"&gt;Uebung_037&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_038.html" target="_blank"&gt;Uebung_038&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_NumbAnzeig.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040.html" target="_blank"&gt;Uebung_040&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040_2.html" target="_blank"&gt;Uebung_040_2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_040_AX.html" target="_blank"&gt;Uebung_040_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_041.html" target="_blank"&gt;Uebung_041&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_070.html" target="_blank"&gt;Uebung_070&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_071.html" target="_blank"&gt;Uebung_071&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_071a.html" target="_blank"&gt;Uebung_071a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_071b.html" target="_blank"&gt;Uebung_071b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_072.html" target="_blank"&gt;Uebung_072&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_072b.html" target="_blank"&gt;Uebung_072b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_072c.html" target="_blank"&gt;Uebung_072c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_073.html" target="_blank"&gt;Uebung_073&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_074.html" target="_blank"&gt;Uebung_074&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_083.html" target="_blank"&gt;Uebung_083&lt;/a&gt;</t>
+          <t>&lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_009.html" target="_blank"&gt;Uebung_009&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_009a.html" target="_blank"&gt;Uebung_009a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_011a.html" target="_blank"&gt;Uebung_011a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_011a2.html" target="_blank"&gt;Uebung_011a2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_012.html" target="_blank"&gt;Uebung_012&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_012a_sub.html" target="_blank"&gt;Uebung_012a_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_012b.html" target="_blank"&gt;Uebung_012b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_015.html" target="_blank"&gt;Uebung_015&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_015a.html" target="_blank"&gt;Uebung_015a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_020c2_sub.html" target="_blank"&gt;Uebung_020c2_sub&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035.html" target="_blank"&gt;Uebung_035&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035b.html" target="_blank"&gt;Uebung_035b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_035c.html" target="_blank"&gt;Uebung_035c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_036.html" target="_blank"&gt;Uebung_036&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_037.html" target="_blank"&gt;Uebung_037&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_038.html" target="_blank"&gt;Uebung_038&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_038_AX.html" target="_blank"&gt;Uebung_038_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_039_sub_NumbAnzeig.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_039_sub_NumbAnzeig_AX.html" target="_blank"&gt;Uebung_039_sub_NumbAnzeig_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040.html" target="_blank"&gt;Uebung_040&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_040_2.html" target="_blank"&gt;Uebung_040_2&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_AX/Uebungen_doc/Uebung_040_AX.html" target="_blank"&gt;Uebung_040_AX&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_041.html" target="_blank"&gt;Uebung_041&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_070.html" target="_blank"&gt;Uebung_070&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_071.html" target="_blank"&gt;Uebung_071&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_071a.html" target="_blank"&gt;Uebung_071a&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_071b.html" target="_blank"&gt;Uebung_071b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_072.html" target="_blank"&gt;Uebung_072&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_072b.html" target="_blank"&gt;Uebung_072b&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_072c.html" target="_blank"&gt;Uebung_072c&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_073.html" target="_blank"&gt;Uebung_073&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_074.html" target="_blank"&gt;Uebung_074&lt;/a&gt;, &lt;a href="https://meisterschulen-am-ostbahnhof-munchen-docs.readthedocs.io/projects/visual-programming-languages-docs/de/latest/training1/Ventilsteuerung/4diacIDE-workspace/test_B/Uebungen_doc/Uebung_083.html" target="_blank"&gt;Uebung_083&lt;/a&gt;</t>
         </is>
       </c>
       <c r="H1965" t="inlineStr">
